--- a/pred_ohlcv/54_21/2020-01-12 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 STEEM ohlcv.xlsx
@@ -912,7 +912,7 @@
         <v>48562.46208824</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>48562.46208824</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>48278.59208824</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>49206.00898824001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>46794.97898824001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>46555.19518824001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>47610.79518824001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>47610.79518824001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>49456.35168824001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>48216.72718824001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>47796.72718824001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>44492.94528824001</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>44492.94528824001</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>44492.94528824001</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>44956.94428824002</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>45645.64028824002</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>136918.88806116</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>139305.1376611601</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>157108.49484225</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>153065.4968422501</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>173465.0361422501</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>194503.94884225</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>322755.90930332</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>376842.47322407</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>362050.66452407</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>400075.0189735601</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>400075.0189735601</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>658040.1735347601</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>645629.9002347601</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>645629.9002347601</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>671449.4343347602</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>711852.1567347602</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>705961.8813347601</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>705747.6030347601</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>694332.3705347601</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>668188.7834347601</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>628082.4560347601</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>604438.8644347601</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>600963.19486514</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>600883.42106514</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 STEEM ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>49206.00898824001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>48957.72718824001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>44492.94528824001</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>44492.94528824001</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>44956.94428824002</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>45645.64028824002</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>136918.88806116</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>139305.1376611601</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>157108.49484225</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>153065.4968422501</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>173465.0361422501</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>194503.94884225</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>322755.90930332</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>376842.47322407</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>362050.66452407</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>400075.0189735601</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>400075.0189735601</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>601675.6284624002</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>685004.2438347602</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>672419.8612347601</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>658040.1735347601</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>645629.9002347601</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>645629.9002347601</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>671449.4343347602</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>672151.4258347602</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>690245.9604347602</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>711852.1567347602</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>705961.8813347601</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>705747.6030347601</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>694332.3705347601</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>668188.7834347601</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>628082.4560347601</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
